--- a/public/sample/Sample-Lead-Import.xlsx
+++ b/public/sample/Sample-Lead-Import.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Full Name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Agent Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created Date</t>
   </si>
   <si>
     <t xml:space="preserve">test user</t>
@@ -77,14 +80,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -106,6 +111,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,12 +156,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,76 +190,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>91999999999</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>1234</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>100000</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>45292</v>
       </c>
     </row>
   </sheetData>
